--- a/Doc/diagramme de Gant.xlsx
+++ b/Doc/diagramme de Gant.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rodrigues\Documents\Cours_Iut\Robot_d-tecteur_de_fum-e\Doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projets\Robot_d_etecteur_de_fumee\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14082EE1-7C80-4348-A6D3-D300430DA392}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{968785F9-B24A-41C3-9A0F-52413C92D540}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Feuil1!$A$1:$AH$30</definedName>
+  </definedNames>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,16 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
-  <si>
-    <t>Phase principale</t>
-  </si>
-  <si>
-    <t>Phase secondaire</t>
-  </si>
-  <si>
-    <t>Integration/debugg</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="28">
   <si>
     <t xml:space="preserve">Cahier de charge </t>
   </si>
@@ -66,21 +59,12 @@
     <t>Test camera</t>
   </si>
   <si>
-    <t>Test deplacement</t>
-  </si>
-  <si>
     <t>Test Co</t>
   </si>
   <si>
-    <t>Test contacte</t>
-  </si>
-  <si>
     <t>Test IR</t>
   </si>
   <si>
-    <t>Test</t>
-  </si>
-  <si>
     <t>Recherche Co</t>
   </si>
   <si>
@@ -90,19 +74,62 @@
     <t>Recherche Deplacement</t>
   </si>
   <si>
-    <t>Recherche ESP-01S</t>
-  </si>
-  <si>
-    <t>Recherche IR</t>
-  </si>
-  <si>
     <t>Test ESP-01S</t>
+  </si>
+  <si>
+    <t>Test moteurs</t>
+  </si>
+  <si>
+    <t>Recherche Wifi</t>
+  </si>
+  <si>
+    <t>Test contact</t>
+  </si>
+  <si>
+    <t>Test capteurs proximité</t>
+  </si>
+  <si>
+    <t>Integration finale</t>
+  </si>
+  <si>
+    <t>Tests généraux</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>moteur &amp; shield</t>
+  </si>
+  <si>
+    <t>capteur IR</t>
+  </si>
+  <si>
+    <t>carte électronique</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Travail conjoint</t>
+  </si>
+  <si>
+    <t>Hugo</t>
+  </si>
+  <si>
+    <t>Anthony</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="165" formatCode="dd/mm"/>
+    <numFmt numFmtId="166" formatCode="mmmm"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -112,12 +139,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -132,13 +177,111 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -447,112 +590,1218 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A0B640A-62FB-4695-8524-639C38B8862B}">
-  <dimension ref="A1:B13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:AG34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomRight" activeCell="AI44" sqref="AI44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" customWidth="1"/>
-    <col min="2" max="2" width="30.28515625" customWidth="1"/>
+    <col min="1" max="1" width="1.7109375" customWidth="1"/>
+    <col min="2" max="2" width="2.5703125" customWidth="1"/>
+    <col min="3" max="3" width="29.85546875" customWidth="1"/>
+    <col min="4" max="10" width="8.7109375" style="1" customWidth="1"/>
+    <col min="11" max="33" width="8.7109375" customWidth="1"/>
+    <col min="34" max="34" width="1.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="2:33" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="D2" s="9">
+        <f>D3</f>
+        <v>44453</v>
+      </c>
+      <c r="E2" s="9"/>
+      <c r="G2" s="9">
+        <f>G3</f>
+        <v>44474</v>
+      </c>
+      <c r="H2" s="9"/>
+      <c r="K2" s="9">
+        <f>K3</f>
+        <v>44502</v>
+      </c>
+      <c r="L2" s="9"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="9">
+        <f>P3</f>
+        <v>44537</v>
+      </c>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="9">
+        <f>T3</f>
+        <v>44565</v>
+      </c>
+      <c r="U2" s="9"/>
+      <c r="V2" s="1"/>
+      <c r="X2" s="9">
+        <f>X3</f>
+        <v>44593</v>
+      </c>
+      <c r="Y2" s="9"/>
+      <c r="AB2" s="9">
+        <f>AB3</f>
+        <v>44621</v>
+      </c>
+      <c r="AC2" s="9"/>
+      <c r="AG2" s="4">
+        <f>AG3</f>
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="3" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="D3" s="3">
+        <v>44453</v>
+      </c>
+      <c r="E3" s="3">
+        <f>D3+7</f>
+        <v>44460</v>
+      </c>
+      <c r="F3" s="3">
+        <f>E3+7</f>
+        <v>44467</v>
+      </c>
+      <c r="G3" s="3">
+        <f>F3+7</f>
+        <v>44474</v>
+      </c>
+      <c r="H3" s="3">
+        <f>G3+7</f>
+        <v>44481</v>
+      </c>
+      <c r="I3" s="3">
+        <f>H3+7</f>
+        <v>44488</v>
+      </c>
+      <c r="J3" s="3">
+        <f>I3+7</f>
+        <v>44495</v>
+      </c>
+      <c r="K3" s="3">
+        <f>J3+7</f>
+        <v>44502</v>
+      </c>
+      <c r="L3" s="3">
+        <f>K3+7</f>
+        <v>44509</v>
+      </c>
+      <c r="M3" s="3">
+        <f>L3+7</f>
+        <v>44516</v>
+      </c>
+      <c r="N3" s="3">
+        <f>M3+7</f>
+        <v>44523</v>
+      </c>
+      <c r="O3" s="3">
+        <f>N3+7</f>
+        <v>44530</v>
+      </c>
+      <c r="P3" s="3">
+        <f>O3+7</f>
+        <v>44537</v>
+      </c>
+      <c r="Q3" s="3">
+        <f>P3+7</f>
+        <v>44544</v>
+      </c>
+      <c r="R3" s="3">
+        <f>Q3+7</f>
+        <v>44551</v>
+      </c>
+      <c r="S3" s="3">
+        <f>R3+7</f>
+        <v>44558</v>
+      </c>
+      <c r="T3" s="3">
+        <f>S3+7</f>
+        <v>44565</v>
+      </c>
+      <c r="U3" s="3">
+        <f>T3+7</f>
+        <v>44572</v>
+      </c>
+      <c r="V3" s="3">
+        <f>U3+7</f>
+        <v>44579</v>
+      </c>
+      <c r="W3" s="3">
+        <f>V3+7</f>
+        <v>44586</v>
+      </c>
+      <c r="X3" s="3">
+        <f>W3+7</f>
+        <v>44593</v>
+      </c>
+      <c r="Y3" s="3">
+        <f>X3+7</f>
+        <v>44600</v>
+      </c>
+      <c r="Z3" s="3">
+        <f>Y3+7</f>
+        <v>44607</v>
+      </c>
+      <c r="AA3" s="3">
+        <f>Z3+7</f>
+        <v>44614</v>
+      </c>
+      <c r="AB3" s="3">
+        <f>AA3+7</f>
+        <v>44621</v>
+      </c>
+      <c r="AC3" s="3">
+        <f>AB3+7</f>
+        <v>44628</v>
+      </c>
+      <c r="AD3" s="3">
+        <f>AC3+7</f>
+        <v>44635</v>
+      </c>
+      <c r="AE3" s="3">
+        <f>AD3+7</f>
+        <v>44642</v>
+      </c>
+      <c r="AF3" s="3">
+        <f>AE3+7</f>
+        <v>44649</v>
+      </c>
+      <c r="AG3" s="3">
+        <f>AF3+7</f>
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="4" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1"/>
+    </row>
+    <row r="5" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="1"/>
+    </row>
+    <row r="6" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1"/>
+      <c r="AG6" s="1"/>
+    </row>
+    <row r="7" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="1"/>
+    </row>
+    <row r="8" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="1"/>
+    </row>
+    <row r="9" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="1"/>
+    </row>
+    <row r="10" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="1"/>
+    </row>
+    <row r="11" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="1"/>
+    </row>
+    <row r="12" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="1"/>
+    </row>
+    <row r="13" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="1"/>
+    </row>
+    <row r="14" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="1"/>
+    </row>
+    <row r="15" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="1"/>
+      <c r="AF15" s="1"/>
+      <c r="AG15" s="1"/>
+    </row>
+    <row r="16" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="1"/>
+      <c r="AF16" s="1"/>
+      <c r="AG16" s="1"/>
+    </row>
+    <row r="17" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="1"/>
+      <c r="AF17" s="1"/>
+      <c r="AG17" s="1"/>
+    </row>
+    <row r="18" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="X18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD18" s="1"/>
+      <c r="AE18" s="1"/>
+      <c r="AF18" s="1"/>
+      <c r="AG18" s="1"/>
+    </row>
+    <row r="19" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD19" s="1"/>
+      <c r="AE19" s="1"/>
+      <c r="AF19" s="1"/>
+      <c r="AG19" s="1"/>
+    </row>
+    <row r="20" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="1"/>
+      <c r="AD20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE20" s="1"/>
+      <c r="AF20" s="1"/>
+      <c r="AG20" s="1"/>
+    </row>
+    <row r="21" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="1"/>
+      <c r="AD21" s="1"/>
+      <c r="AE21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF21" s="1"/>
+      <c r="AG21" s="1"/>
+    </row>
+    <row r="22" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="1"/>
+      <c r="AD22" s="1"/>
+      <c r="AE22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF22" s="1"/>
+      <c r="AG22" s="1"/>
+    </row>
+    <row r="23" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="1"/>
+      <c r="AC23" s="1"/>
+      <c r="AD23" s="1"/>
+      <c r="AE23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF23" s="1"/>
+      <c r="AG23" s="1"/>
+    </row>
+    <row r="24" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="1"/>
+      <c r="AC24" s="1"/>
+      <c r="AD24" s="1"/>
+      <c r="AE24" s="1"/>
+      <c r="AF24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG24" s="1"/>
+    </row>
+    <row r="25" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
         <v>2</v>
       </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="1"/>
+      <c r="AB25" s="1"/>
+      <c r="AC25" s="1"/>
+      <c r="AD25" s="1"/>
+      <c r="AE25" s="1"/>
+      <c r="AF25" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
+      <c r="AG25" s="1"/>
+    </row>
+    <row r="26" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="1"/>
+      <c r="AC26" s="1"/>
+      <c r="AD26" s="1"/>
+      <c r="AE26" s="1"/>
+      <c r="AF26" s="1"/>
+      <c r="AG26" s="1"/>
+    </row>
+    <row r="27" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="D27" s="5"/>
+      <c r="E27" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="1"/>
+      <c r="AC27" s="1"/>
+      <c r="AD27" s="1"/>
+      <c r="AE27" s="1"/>
+      <c r="AF27" s="1"/>
+      <c r="AG27" s="1"/>
+    </row>
+    <row r="28" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="D28" s="7"/>
+      <c r="E28" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="1"/>
+      <c r="AB28" s="1"/>
+      <c r="AC28" s="1"/>
+      <c r="AD28" s="1"/>
+      <c r="AE28" s="1"/>
+      <c r="AF28" s="1"/>
+      <c r="AG28" s="1"/>
+    </row>
+    <row r="29" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="D29" s="8"/>
+      <c r="E29" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
+      <c r="AA29" s="1"/>
+      <c r="AB29" s="1"/>
+      <c r="AC29" s="1"/>
+      <c r="AD29" s="1"/>
+      <c r="AE29" s="1"/>
+      <c r="AF29" s="1"/>
+      <c r="AG29" s="1"/>
+    </row>
+    <row r="30" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1"/>
+      <c r="AA30" s="1"/>
+      <c r="AB30" s="1"/>
+      <c r="AC30" s="1"/>
+      <c r="AD30" s="1"/>
+      <c r="AE30" s="1"/>
+      <c r="AF30" s="1"/>
+      <c r="AG30" s="1"/>
+    </row>
+    <row r="31" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="1"/>
+      <c r="AB31" s="1"/>
+      <c r="AC31" s="1"/>
+      <c r="AD31" s="1"/>
+      <c r="AE31" s="1"/>
+      <c r="AF31" s="1"/>
+      <c r="AG31" s="1"/>
+    </row>
+    <row r="32" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="1"/>
+      <c r="AA32" s="1"/>
+      <c r="AB32" s="1"/>
+      <c r="AC32" s="1"/>
+      <c r="AD32" s="1"/>
+      <c r="AE32" s="1"/>
+      <c r="AF32" s="1"/>
+      <c r="AG32" s="1"/>
+    </row>
+    <row r="33" spans="11:33" x14ac:dyDescent="0.25">
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="1"/>
+      <c r="AA33" s="1"/>
+      <c r="AB33" s="1"/>
+      <c r="AC33" s="1"/>
+      <c r="AD33" s="1"/>
+      <c r="AE33" s="1"/>
+      <c r="AF33" s="1"/>
+      <c r="AG33" s="1"/>
+    </row>
+    <row r="34" spans="11:33" x14ac:dyDescent="0.25">
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1"/>
+      <c r="Z34" s="1"/>
+      <c r="AA34" s="1"/>
+      <c r="AB34" s="1"/>
+      <c r="AC34" s="1"/>
+      <c r="AD34" s="1"/>
+      <c r="AE34" s="1"/>
+      <c r="AF34" s="1"/>
+      <c r="AG34" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <mergeCells count="7">
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="X2:Y2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D4:AG25">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>D4="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>D4="h"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>D4="a"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="48" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>